--- a/go/practice16/CountingSort_CocktailSort.xlsx
+++ b/go/practice16/CountingSort_CocktailSort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afef6050300cf238/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA3FB80-623A-4152-89CD-A5763FE91FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23EE0125-39D5-4E2F-A761-B13392938B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="7410" windowWidth="14400" windowHeight="9990" xr2:uid="{C6F0649D-2FAC-40C3-AA4D-CAB4703B1D76}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098A56C-3FF3-4ABB-A7FA-995BFFD3473D}">
   <dimension ref="A10:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+    <sheetView tabSelected="1" topLeftCell="H41" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -659,8 +659,8 @@
         <v>8.3999999999999995E-5</v>
       </c>
       <c r="I13" s="7">
-        <f>_xlfn.STDEV.S(C13:G13)</f>
-        <v>3.2493076185550668E-5</v>
+        <f>_xlfn.STDEV.P(C13:G13)</f>
+        <v>2.9062690859588345E-5</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="3">
@@ -685,8 +685,8 @@
         <v>1.7E-5</v>
       </c>
       <c r="R13" s="8">
-        <f>_xlfn.STDEV.S(L13:P13)</f>
-        <v>2.0736441353327726E-6</v>
+        <f>_xlfn.STDEV.P(L13:P13)</f>
+        <v>1.8547236990991413E-6</v>
       </c>
       <c r="S13" s="11"/>
     </row>
@@ -714,8 +714,8 @@
         <v>5.1250000000000002E-3</v>
       </c>
       <c r="I14" s="7">
-        <f>_xlfn.STDEV.S(C14:G14)</f>
-        <v>1.2323484491003345E-3</v>
+        <f t="shared" ref="I14:I27" si="0">_xlfn.STDEV.P(C14:G14)</f>
+        <v>1.102245961661915E-3</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="3">
@@ -740,8 +740,8 @@
         <v>2.0599999999999999E-4</v>
       </c>
       <c r="R14" s="8">
-        <f>_xlfn.STDEV.S(L14:P14)</f>
-        <v>7.6802994733278455E-5</v>
+        <f t="shared" ref="R14:R27" si="1">_xlfn.STDEV.P(L14:P14)</f>
+        <v>6.8694686839667596E-5</v>
       </c>
       <c r="S14" s="11"/>
     </row>
@@ -769,8 +769,8 @@
         <v>1.9379E-2</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" ref="I14:I27" si="0">_xlfn.STDEV.S(C15:G15)</f>
-        <v>9.6016285077063902E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.5879576151725407E-4</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="3">
@@ -795,8 +795,8 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:R27" si="1">_xlfn.STDEV.S(L15:P15)</f>
-        <v>6.127642287209658E-5</v>
+        <f t="shared" si="1"/>
+        <v>5.4807298784012335E-5</v>
       </c>
       <c r="S15" s="11"/>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>9.6558101679765894E-4</v>
+        <v>8.6364191653717272E-4</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="3">
@@ -851,7 +851,7 @@
       </c>
       <c r="R16" s="8">
         <f t="shared" si="1"/>
-        <v>7.2617491005955308E-5</v>
+        <v>6.4951058497918256E-5</v>
       </c>
       <c r="S16" s="11"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
-        <v>1.4305583874837117E-3</v>
+        <v>1.2795303200784254E-3</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="3">
@@ -906,7 +906,7 @@
       </c>
       <c r="R17" s="8">
         <f t="shared" si="1"/>
-        <v>7.9332843135740443E-5</v>
+        <v>7.095745203993728E-5</v>
       </c>
       <c r="S17" s="11"/>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
-        <v>1.5047855993463033E-3</v>
+        <v>1.3459211566804389E-3</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="3">
@@ -961,7 +961,7 @@
       </c>
       <c r="R18" s="8">
         <f t="shared" si="1"/>
-        <v>7.3534345716814542E-5</v>
+        <v>6.5771118281507125E-5</v>
       </c>
       <c r="S18" s="11"/>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
-        <v>3.7715969164267829E-3</v>
+        <v>3.3734188355435519E-3</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="3">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="R19" s="8">
         <f t="shared" si="1"/>
-        <v>4.0121066785418346E-5</v>
+        <v>3.5885373064801754E-5</v>
       </c>
       <c r="S19" s="11"/>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
-        <v>4.7032700645402029E-3</v>
+        <v>4.2067326323406871E-3</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="3">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="R20" s="8">
         <f t="shared" si="1"/>
-        <v>1.2749392142372904E-4</v>
+        <v>1.1403403000858996E-4</v>
       </c>
       <c r="S20" s="11"/>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
-        <v>4.9933391332854619E-3</v>
+        <v>4.4661782946944706E-3</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="3">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="R21" s="8">
         <f t="shared" si="1"/>
-        <v>4.5981518026267904E-5</v>
+        <v>4.1127120006146799E-5</v>
       </c>
       <c r="S21" s="11"/>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I22" s="7">
         <f t="shared" si="0"/>
-        <v>8.1488611044734198E-3</v>
+        <v>7.2885629475226334E-3</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="3">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="R22" s="8">
         <f t="shared" si="1"/>
-        <v>6.1994354581687528E-5</v>
+        <v>5.5449436426351544E-5</v>
       </c>
       <c r="S22" s="11"/>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I23" s="7">
         <f t="shared" si="0"/>
-        <v>1.249466392905387E-2</v>
+        <v>1.1175567160551623E-2</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="3">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="R23" s="8">
         <f t="shared" si="1"/>
-        <v>4.4426343536239858E-5</v>
+        <v>3.9736129655516284E-5</v>
       </c>
       <c r="S23" s="11"/>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
-        <v>4.3376672870334337E-2</v>
+        <v>3.8797275670335404E-2</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="3">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="R24" s="8">
         <f t="shared" si="1"/>
-        <v>2.8835741710592417E-5</v>
+        <v>2.5791471458604284E-5</v>
       </c>
       <c r="S24" s="11"/>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I25" s="7">
         <f t="shared" si="0"/>
-        <v>0.1188580680908958</v>
+        <v>0.10630988797021668</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="3">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="R25" s="8">
         <f t="shared" si="1"/>
-        <v>1.2454236227083537E-4</v>
+        <v>1.1139407524639719E-4</v>
       </c>
       <c r="S25" s="11"/>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
-        <v>0.17759129566141471</v>
+        <v>0.15884248372447474</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="3">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="R26" s="8">
         <f t="shared" si="1"/>
-        <v>1.9416410584863515E-4</v>
+        <v>1.7366565578720507E-4</v>
       </c>
       <c r="S26" s="11"/>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I27" s="7">
         <f t="shared" si="0"/>
-        <v>0.30849426692679388</v>
+        <v>0.27592566060691054</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="3">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="R27" s="8">
         <f t="shared" si="1"/>
-        <v>1.488127951488043E-3</v>
+        <v>1.3310221034979095E-3</v>
       </c>
       <c r="S27" s="11"/>
     </row>
@@ -1604,6 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
+        <f>_xlfn.STDEV.P(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="11"/>
@@ -1629,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="9">
-        <f>_xlfn.STDEV.S(L32:P32)</f>
+        <f>_xlfn.STDEV.P(L32:P32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="11"/>
@@ -1658,8 +1659,8 @@
         <v>5.507E-4</v>
       </c>
       <c r="I33" s="8">
-        <f>_xlfn.STDEV.S(C33:G33)</f>
-        <v>7.2754243862471681E-5</v>
+        <f>_xlfn.STDEV.P(C33:G33)</f>
+        <v>6.5073373971233408E-5</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="2">
@@ -1684,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="9">
-        <f>_xlfn.STDEV.S(L33:P33)</f>
+        <f t="shared" ref="R33:R46" si="2">_xlfn.STDEV.P(L33:P33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="11"/>
@@ -1713,8 +1714,8 @@
         <v>2.8089399999999998E-3</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" ref="I34:I46" si="2">_xlfn.STDEV.S(C34:G34)</f>
-        <v>3.9246963959012164E-4</v>
+        <f t="shared" ref="I34:I46" si="3">_xlfn.STDEV.P(C34:G34)</f>
+        <v>3.5103551729134184E-4</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="2">
@@ -1739,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" ref="R34:R46" si="3">_xlfn.STDEV.S(L34:P34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S34" s="11"/>
@@ -1768,8 +1769,8 @@
         <v>5.6856399999999996E-3</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
-        <v>9.2567316046215657E-5</v>
+        <f t="shared" si="3"/>
+        <v>8.2794724469618106E-5</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="2">
@@ -1794,8 +1795,8 @@
         <v>4.0413999999999999E-4</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="3"/>
-        <v>4.2189997392747019E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.7735880856288489E-4</v>
       </c>
       <c r="S35" s="11"/>
     </row>
@@ -1823,8 +1824,8 @@
         <v>1.121256E-2</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="2"/>
-        <v>5.3333146166338282E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.7702616112745889E-4</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="2">
@@ -1849,8 +1850,8 @@
         <v>9.4199999999999996E-6</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="3"/>
-        <v>2.1063760348048017E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.8839999999999999E-5</v>
       </c>
       <c r="S36" s="11"/>
     </row>
@@ -1878,8 +1879,8 @@
         <v>1.904788E-2</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="2"/>
-        <v>6.1391424238243597E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.4910159132896374E-4</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="2">
@@ -1904,8 +1905,8 @@
         <v>1.0958E-4</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="3"/>
-        <v>2.4502832897442696E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.1916000000000001E-4</v>
       </c>
       <c r="S37" s="11"/>
     </row>
@@ -1933,8 +1934,8 @@
         <v>4.0988320000000002E-2</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8996061387614005E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.6990593826985562E-2</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="2">
@@ -1959,8 +1960,8 @@
         <v>4.2549999999999999E-4</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="3"/>
-        <v>4.4992668291622803E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.0242665915667168E-4</v>
       </c>
       <c r="S38" s="11"/>
     </row>
@@ -1988,8 +1989,8 @@
         <v>5.25826E-2</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0726334089630993E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.8538196779514449E-2</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="2">
@@ -2014,8 +2015,8 @@
         <v>2.0683999999999899E-4</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="3"/>
-        <v>2.832274757151926E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.533263555179366E-4</v>
       </c>
       <c r="S39" s="11"/>
     </row>
@@ -2043,8 +2044,8 @@
         <v>6.4352140000000002E-2</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8631928103741674E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.6664903116742059E-2</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="2">
@@ -2069,8 +2070,8 @@
         <v>3.1272E-4</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="3"/>
-        <v>2.8570980382198997E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.5554661727363948E-4</v>
       </c>
       <c r="S40" s="11"/>
     </row>
@@ -2098,8 +2099,8 @@
         <v>8.2047379999999906E-2</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="2"/>
-        <v>1.9586982635592467E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7519129858917112E-2</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="2">
@@ -2124,8 +2125,8 @@
         <v>2.3562E-4</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="3"/>
-        <v>3.2340635738958504E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.8926343979148144E-4</v>
       </c>
       <c r="S41" s="11"/>
     </row>
@@ -2153,8 +2154,8 @@
         <v>8.772054E-2</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="2"/>
-        <v>1.9823536019086046E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.7730709637236786E-3</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="2">
@@ -2179,8 +2180,8 @@
         <v>5.4902E-4</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="3"/>
-        <v>3.2427039951250558E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.9003626256039088E-4</v>
       </c>
       <c r="S42" s="11"/>
     </row>
@@ -2208,8 +2209,8 @@
         <v>0.38739251999999902</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="2"/>
-        <v>1.5553396421264392E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.3911380671579654E-2</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="2">
@@ -2234,8 +2235,8 @@
         <v>8.4048E-4</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="3"/>
-        <v>2.7034097358706095E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.418003176176574E-4</v>
       </c>
       <c r="S43" s="11"/>
     </row>
@@ -2263,8 +2264,8 @@
         <v>0.87835644000000002</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="2"/>
-        <v>1.9123191621379512E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7104302564863602E-2</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="2">
@@ -2289,8 +2290,8 @@
         <v>1.3615400000000001E-3</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="3"/>
-        <v>3.1284678838051059E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.7981867414452523E-4</v>
       </c>
       <c r="S44" s="11"/>
     </row>
@@ -2318,8 +2319,8 @@
         <v>1.5863405399999999</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="2"/>
-        <v>4.0999889097204222E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6671415636520453E-2</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="2">
@@ -2344,8 +2345,8 @@
         <v>2.0075399999999999E-3</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="3"/>
-        <v>2.7764494052656533E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.4833318425051453E-4</v>
       </c>
       <c r="S45" s="11"/>
     </row>
@@ -2373,8 +2374,8 @@
         <v>2.5024308999999998</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="2"/>
-        <v>7.1453905362127363E-3</v>
+        <f>_xlfn.STDEV.P(C46:G46)</f>
+        <v>6.3910315859021403E-3</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="2">
@@ -2399,8 +2400,8 @@
         <v>2.421E-3</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="3"/>
-        <v>5.2158103397267051E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.6651625909500743E-4</v>
       </c>
       <c r="S46" s="11"/>
     </row>
@@ -2548,8 +2549,8 @@
         <v>6.0167312622070299E-4</v>
       </c>
       <c r="I51" s="10">
-        <f>_xlfn.STDEV.S(C51:G51)</f>
-        <v>5.4945837837800965E-4</v>
+        <f>_xlfn.STDEV.P(C51:G51)</f>
+        <v>4.9145051394401207E-4</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="3">
@@ -2574,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="8">
-        <f>_xlfn.STDEV.S(L51:P51)</f>
+        <f>_xlfn.STDEV.P(L51:P51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="11"/>
@@ -2603,8 +2604,8 @@
         <v>9.1077041625976504E-2</v>
       </c>
       <c r="I52" s="10">
-        <f>_xlfn.STDEV.S(C52:G52)</f>
-        <v>2.7766314646751646E-3</v>
+        <f t="shared" ref="I52:I65" si="4">_xlfn.STDEV.P(C52:G52)</f>
+        <v>2.4834946813913892E-3</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="3">
@@ -2629,8 +2630,8 @@
         <v>6.0763359069824195E-4</v>
       </c>
       <c r="R52" s="8">
-        <f>_xlfn.STDEV.S(L52:P52)</f>
-        <v>5.5486323599489296E-4</v>
+        <f t="shared" ref="R52:R65" si="5">_xlfn.STDEV.P(L52:P52)</f>
+        <v>4.9628476556003555E-4</v>
       </c>
       <c r="S52" s="11"/>
     </row>
@@ -2658,8 +2659,8 @@
         <v>0.38008236885070801</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" ref="I53:I65" si="4">_xlfn.STDEV.S(C53:G53)</f>
-        <v>9.6401749637140648E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.6224346135424859E-3</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="3">
@@ -2684,8 +2685,8 @@
         <v>1.2085437774658201E-3</v>
       </c>
       <c r="R53" s="8">
-        <f t="shared" ref="R53:R65" si="5">_xlfn.STDEV.S(L53:P53)</f>
-        <v>4.5544548330349831E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.0736282428474705E-4</v>
       </c>
       <c r="S53" s="11"/>
     </row>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="I54" s="10">
         <f t="shared" si="4"/>
-        <v>2.4664983955360518E-2</v>
+        <v>2.2061032315251104E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="3">
@@ -2740,7 +2741,7 @@
       </c>
       <c r="R54" s="8">
         <f t="shared" si="5"/>
-        <v>4.4825668565913164E-4</v>
+        <v>4.0093296820102939E-4</v>
       </c>
       <c r="S54" s="11"/>
     </row>
@@ -2769,7 +2770,7 @@
       </c>
       <c r="I55" s="10">
         <f t="shared" si="4"/>
-        <v>3.9414822095305321E-2</v>
+        <v>3.5253688610465357E-2</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="3">
@@ -2795,7 +2796,7 @@
       </c>
       <c r="R55" s="8">
         <f t="shared" si="5"/>
-        <v>6.1387731751624656E-4</v>
+        <v>5.4906856472461993E-4</v>
       </c>
       <c r="S55" s="11"/>
     </row>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="I56" s="10">
         <f t="shared" si="4"/>
-        <v>5.163158745188199E-2</v>
+        <v>4.6180695731453315E-2</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="3">
@@ -2850,7 +2851,7 @@
       </c>
       <c r="R56" s="8">
         <f t="shared" si="5"/>
-        <v>1.3422987177342534E-5</v>
+        <v>1.2005884715858372E-5</v>
       </c>
       <c r="S56" s="11"/>
     </row>
@@ -2879,7 +2880,7 @@
       </c>
       <c r="I57" s="10">
         <f t="shared" si="4"/>
-        <v>8.5001389912309641E-2</v>
+        <v>7.6027554410355705E-2</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="3">
@@ -2905,7 +2906,7 @@
       </c>
       <c r="R57" s="8">
         <f t="shared" si="5"/>
-        <v>5.449409703966794E-4</v>
+        <v>4.8741002141267027E-4</v>
       </c>
       <c r="S57" s="11"/>
     </row>
@@ -2934,7 +2935,7 @@
       </c>
       <c r="I58" s="10">
         <f t="shared" si="4"/>
-        <v>7.7179313487635542E-2</v>
+        <v>6.9031276566047781E-2</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="3">
@@ -2960,7 +2961,7 @@
       </c>
       <c r="R58" s="8">
         <f t="shared" si="5"/>
-        <v>5.4088687377905635E-4</v>
+        <v>4.8378392716292743E-4</v>
       </c>
       <c r="S58" s="11"/>
     </row>
@@ -2989,7 +2990,7 @@
       </c>
       <c r="I59" s="10">
         <f t="shared" si="4"/>
-        <v>6.9686868509510391E-2</v>
+        <v>6.2329830050541872E-2</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="3">
@@ -3015,7 +3016,7 @@
       </c>
       <c r="R59" s="8">
         <f t="shared" si="5"/>
-        <v>5.4799519536766997E-4</v>
+        <v>4.9014180327415513E-4</v>
       </c>
       <c r="S59" s="11"/>
     </row>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="I60" s="10">
         <f t="shared" si="4"/>
-        <v>0.10838439546212005</v>
+        <v>9.6941950381408057E-2</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="3">
@@ -3070,7 +3071,7 @@
       </c>
       <c r="R60" s="8">
         <f t="shared" si="5"/>
-        <v>8.3318920014941508E-4</v>
+        <v>7.4522707586110798E-4</v>
       </c>
       <c r="S60" s="11"/>
     </row>
@@ -3099,7 +3100,7 @@
       </c>
       <c r="I61" s="10">
         <f t="shared" si="4"/>
-        <v>0.12517859708695339</v>
+        <v>0.11196314096579398</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="3">
@@ -3125,7 +3126,7 @@
       </c>
       <c r="R61" s="8">
         <f t="shared" si="5"/>
-        <v>5.6274089803732489E-4</v>
+        <v>5.033307606922946E-4</v>
       </c>
       <c r="S61" s="11"/>
     </row>
@@ -3154,7 +3155,7 @@
       </c>
       <c r="I62" s="10">
         <f t="shared" si="4"/>
-        <v>2.1361655852980208</v>
+        <v>1.9106445839688002</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="3">
@@ -3180,7 +3181,7 @@
       </c>
       <c r="R62" s="8">
         <f t="shared" si="5"/>
-        <v>8.480356553143963E-4</v>
+        <v>7.5850614905062833E-4</v>
       </c>
       <c r="S62" s="11"/>
     </row>
@@ -3209,7 +3210,7 @@
       </c>
       <c r="I63" s="10">
         <f t="shared" si="4"/>
-        <v>1.7227160843932419</v>
+        <v>1.5408441082542212</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="3">
@@ -3235,7 +3236,7 @@
       </c>
       <c r="R63" s="8">
         <f t="shared" si="5"/>
-        <v>8.3877166392339541E-4</v>
+        <v>7.50220183253328E-4</v>
       </c>
       <c r="S63" s="11"/>
     </row>
@@ -3264,7 +3265,7 @@
       </c>
       <c r="I64" s="10">
         <f t="shared" si="4"/>
-        <v>2.9236325813812325</v>
+        <v>2.6149764772806487</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="3">
@@ -3290,7 +3291,7 @@
       </c>
       <c r="R64" s="8">
         <f t="shared" si="5"/>
-        <v>1.1798054506507269E-3</v>
+        <v>1.0552500751519194E-3</v>
       </c>
       <c r="S64" s="11"/>
     </row>
@@ -3319,7 +3320,7 @@
       </c>
       <c r="I65" s="10">
         <f t="shared" si="4"/>
-        <v>5.0808348321739372</v>
+        <v>4.544436826875863</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="3">
@@ -3345,7 +3346,7 @@
       </c>
       <c r="R65" s="8">
         <f t="shared" si="5"/>
-        <v>1.0408856389349768E-3</v>
+        <v>9.3099641818476396E-4</v>
       </c>
       <c r="S65" s="11"/>
     </row>
